--- a/testesanas_akenta.xlsx
+++ b/testesanas_akenta.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ReinisP\LietProgr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="12" windowWidth="20952" windowHeight="9720"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">Testēšanas veidlapa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programmas nosaukums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Istabu menedžeris</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+  <si>
+    <t>Testēšanas veidlapa</t>
+  </si>
+  <si>
+    <t>Programmas nosaukums</t>
+  </si>
+  <si>
+    <t>Istabu menedžeris</t>
   </si>
   <si>
     <t>Datums:</t>
@@ -33,10 +39,10 @@
     <t>Izstrādātājs:</t>
   </si>
   <si>
-    <t xml:space="preserve">Reinis P, Markuss C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programmēšanas valoda:</t>
+    <t>Reinis P, Markuss C</t>
+  </si>
+  <si>
+    <t>Programmēšanas valoda:</t>
   </si>
   <si>
     <t>Java</t>
@@ -45,81 +51,96 @@
     <t>Testētājs:</t>
   </si>
   <si>
-    <t xml:space="preserve">Dāvis S, Ritvars M, Markuss Z</t>
+    <t>Dāvis S, Ritvars M, Markuss Z</t>
   </si>
   <si>
     <t>Nr.</t>
   </si>
   <si>
-    <t xml:space="preserve">Testa nosaukums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sagaidamais rezultāts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testēšanas rezultāts</t>
+    <t>Testa nosaukums</t>
+  </si>
+  <si>
+    <t>Sagaidamais rezultāts</t>
+  </si>
+  <si>
+    <t>Testēšanas rezultāts</t>
   </si>
   <si>
     <t>Login</t>
   </si>
   <si>
-    <t xml:space="preserve">Ir iespējams ielogoties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Istabu ievade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vienkārši var ievadīt istabas</t>
+    <t>Ir iespējams ielogoties</t>
+  </si>
+  <si>
+    <t>Istabu ievade</t>
+  </si>
+  <si>
+    <t>Vienkārši var ievadīt istabas</t>
   </si>
   <si>
     <t>Tabula</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabulas strādā pareizi</t>
+    <t>Tabulas strādā pareizi</t>
   </si>
   <si>
     <t>Ērtums</t>
   </si>
   <si>
-    <t xml:space="preserve">Programma ir parocīga</t>
+    <t>Programma ir parocīga</t>
   </si>
   <si>
     <t>Drošība</t>
   </si>
   <si>
-    <t xml:space="preserve">Dati par istabām nav visiem pieejami</t>
+    <t>Dati par istabām nav visiem pieejami</t>
+  </si>
+  <si>
+    <t>Strādā</t>
+  </si>
+  <si>
+    <t>Viegli izmantot</t>
+  </si>
+  <si>
+    <t>Dati ir droši</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="14.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="12.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -147,25 +168,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -173,295 +197,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -664,34 +408,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="J14" activeCellId="0" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="12.140625"/>
-    <col customWidth="1" min="6" max="6" width="11.28515625"/>
-    <col customWidth="1" min="8" max="8" width="23.421875"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18.75">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" ht="16.5">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -703,7 +449,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,7 +461,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -727,7 +473,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -739,23 +485,22 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
@@ -769,127 +514,124 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
+  <mergeCells count="29">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
 </worksheet>
 </file>